--- a/Base/Teams/Patriots/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/2021 Target Depth Data.xlsx
@@ -450,10 +450,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>6</v>

--- a/Base/Teams/Patriots/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>3</v>

--- a/Base/Teams/Patriots/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/Base/Teams/Patriots/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="C2">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C2">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>3</v>

--- a/Base/Teams/Patriots/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Patriots/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>3</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>7</v>
